--- a/RIA/docs/PRI_RIA_APP_permissions.xlsx
+++ b/RIA/docs/PRI_RIA_APP_permissions.xlsx
@@ -132,12 +132,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIEW</t>
+          <t>TABLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRI_PROJ_RES_TAG_MAX_SUM_ALL_V</t>
+          <t>PRI_DATA_SOURCES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -154,15 +154,103 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PRI_RES_SCOPES</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PRI_RES_TYPES</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>VIEW</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PRI_PROJ_RES_TAG_MAX_SUM_ALL_V</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>PRI_RES_PROJ_TAG_MAX_SUM_ALL_V</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRI_RES_PROJ_TAG_MAX_SUM_V</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SELECT</t>
         </is>
